--- a/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
+++ b/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\DToPaSoVAbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\DToPaSoVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693CD173-A470-4FE7-93DC-9BDE6AD9F865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757A71A2-F03A-48D6-A5E1-156B3DDD1757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="1380" windowWidth="24090" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="780" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD VAL" sheetId="12" r:id="rId2"/>
     <sheet name="OECD Chem Pharma Split" sheetId="13" r:id="rId3"/>
-    <sheet name="Chem Pharma Shares" sheetId="14" r:id="rId4"/>
-    <sheet name="DToPaSoVAbIC" sheetId="2" r:id="rId5"/>
+    <sheet name="BLS BEA Mining" sheetId="15" r:id="rId4"/>
+    <sheet name="Split ISIC Code Shares" sheetId="14" r:id="rId5"/>
+    <sheet name="DToPaSoVAbIC" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -645,7 +646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="201">
   <si>
     <t>Source:</t>
   </si>
@@ -680,9 +681,6 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -1137,6 +1135,120 @@
   </si>
   <si>
     <t>Variables: LABR, GOPS, OTXS</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>Data for Year 2015</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Coal Mining</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>All Mining other than Oil and Gas</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>NAICS Code</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>ISIC Code</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Employment (EEs)</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/ces/data/employment-and-earnings/2015/table1a_201512.pdf</t>
+  </si>
+  <si>
+    <t>BEA</t>
+  </si>
+  <si>
+    <t>Gross Output</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/UGdpxInd/GrossOutput.xlsx</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/GDPxInd/GrossOutput.xlsx</t>
+  </si>
+  <si>
+    <t>Value Added</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/CompByInd/ComponentsOfVa.xlsx</t>
+  </si>
+  <si>
+    <t>Compensation of employees</t>
+  </si>
+  <si>
+    <t>Taxes on production and imports less subsidies</t>
+  </si>
+  <si>
+    <t>Gross operating surplus</t>
+  </si>
+  <si>
+    <t>Coal Mining vs. Oil &amp; Gas Extraction</t>
+  </si>
+  <si>
+    <t>U.S. Bureau of Labor Statistics</t>
+  </si>
+  <si>
+    <t>Current Employment Statistics (Dec 2015 release)</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/ces/data/employment-and-earnings/2015/home.htm</t>
+  </si>
+  <si>
+    <t>Table B-1a</t>
+  </si>
+  <si>
+    <t>Industry File Download</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/iTable/iTable.cfm?isuri=1&amp;reqid=151&amp;step=1</t>
+  </si>
+  <si>
+    <t>Gross Output by Industry</t>
+  </si>
+  <si>
+    <t>Underlying Detail: Gross Output by Industry</t>
+  </si>
+  <si>
+    <t>Components of Value Added</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>Coal mining</t>
+  </si>
+  <si>
+    <t>We divide up coal mining (ISIC 05) and oil and gas extraction (ISIC 06) using data from the BEA.</t>
   </si>
 </sst>
 </file>
@@ -1244,6 +1356,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1252,7 +1365,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1298,6 +1411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1488,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1413,66 +1532,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1508,6 +1570,80 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1791,7 +1927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1802,7 +1938,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1810,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,22 +1961,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1855,119 +1991,190 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
+      <c r="B17" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>99</v>
+      <c r="B18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>100</v>
+      <c r="B19" s="2">
+        <v>2015</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>101</v>
+      <c r="B20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>96</v>
+      <c r="B21" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>93</v>
+      <c r="B25" s="2">
+        <v>2020</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>105</v>
+      <c r="B28" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>106</v>
+      <c r="B29" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>107</v>
+      <c r="B30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>0.9686815713640794</v>
+      </c>
+      <c r="B54" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
-        <v>0.9686815713640794</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{08759D76-7BB6-457A-8AB6-5DD1F0937482}"/>
     <hyperlink ref="B14" r:id="rId2" xr:uid="{CD38D47C-8EE5-4D27-9E18-521814D342B3}"/>
+    <hyperlink ref="B27" r:id="rId3" xr:uid="{FC209030-56C9-4EEC-B9FD-BC3A14417C4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2004,302 +2211,302 @@
     </row>
     <row r="2" spans="1:38" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="42"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="37"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="37"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="28"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="23"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="23"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="37"/>
+    </row>
+    <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="23"/>
-    </row>
-    <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="Z7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="8" t="s">
+      <c r="AB7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AB7" s="8" t="s">
+      <c r="AC7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AC7" s="8" t="s">
+      <c r="AD7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AD7" s="8" t="s">
+      <c r="AE7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AE7" s="8" t="s">
+      <c r="AF7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AG7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AH7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AI7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AJ7" s="8" t="s">
+      <c r="AK7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AK7" s="8" t="s">
+      <c r="AL7" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>9</v>
@@ -2415,7 +2622,7 @@
     </row>
     <row r="9" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -2531,7 +2738,7 @@
     </row>
     <row r="10" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>9</v>
@@ -2647,7 +2854,7 @@
     </row>
     <row r="11" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -2763,7 +2970,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2804,1279 +3011,1279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="e">
+      <c r="A1" s="19" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="50" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="51"/>
+      <c r="K4" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="51"/>
+      <c r="M4" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="25">
+        <v>17390</v>
+      </c>
+      <c r="D7" s="25">
+        <v>10427</v>
+      </c>
+      <c r="E7" s="25">
+        <v>6061</v>
+      </c>
+      <c r="F7" s="25">
+        <v>3451</v>
+      </c>
+      <c r="G7" s="25">
+        <v>2949</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1466</v>
+      </c>
+      <c r="I7" s="25">
+        <v>2957</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1941</v>
+      </c>
+      <c r="K7" s="25">
+        <v>151</v>
+      </c>
+      <c r="L7" s="25">
+        <v>48</v>
+      </c>
+      <c r="M7" s="25">
+        <v>31.715</v>
+      </c>
+      <c r="N7" s="25">
+        <v>16.427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="26">
+        <v>13142.207</v>
+      </c>
+      <c r="D8" s="26">
+        <v>4268.8580000000002</v>
+      </c>
+      <c r="E8" s="26">
+        <v>2750.683</v>
+      </c>
+      <c r="F8" s="26">
+        <v>2190.2440000000001</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1169.6790000000001</v>
+      </c>
+      <c r="H8" s="26">
+        <v>999.32500000000005</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1540.5920000000001</v>
+      </c>
+      <c r="J8" s="26">
+        <v>1143.9290000000001</v>
+      </c>
+      <c r="K8" s="26">
+        <v>40.411999999999999</v>
+      </c>
+      <c r="L8" s="26">
+        <v>46.99</v>
+      </c>
+      <c r="M8" s="26">
+        <v>17.47</v>
+      </c>
+      <c r="N8" s="26">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="25">
+        <v>32184.7</v>
+      </c>
+      <c r="D9" s="25">
+        <v>15967.8</v>
+      </c>
+      <c r="E9" s="25">
+        <v>9208.1</v>
+      </c>
+      <c r="F9" s="25">
+        <v>5799.6</v>
+      </c>
+      <c r="G9" s="25">
+        <v>4169.7</v>
+      </c>
+      <c r="H9" s="25">
+        <v>2219.6999999999998</v>
+      </c>
+      <c r="I9" s="25">
+        <v>5127.8</v>
+      </c>
+      <c r="J9" s="25">
+        <v>3664</v>
+      </c>
+      <c r="K9" s="25">
+        <v>-89.4</v>
+      </c>
+      <c r="L9" s="25">
+        <v>-84.1</v>
+      </c>
+      <c r="M9" s="25">
+        <v>44</v>
+      </c>
+      <c r="N9" s="25">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="26">
+        <v>4296151.79</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1176806.6969999999</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1262313.6129999999</v>
+      </c>
+      <c r="F10" s="26">
+        <v>414529.82299999997</v>
+      </c>
+      <c r="G10" s="26">
+        <v>410617.86</v>
+      </c>
+      <c r="H10" s="26">
+        <v>197186.617</v>
+      </c>
+      <c r="I10" s="26">
+        <v>825702.42099999997</v>
+      </c>
+      <c r="J10" s="26">
+        <v>207059.06099999999</v>
+      </c>
+      <c r="K10" s="26">
+        <v>25993.348999999998</v>
+      </c>
+      <c r="L10" s="26">
+        <v>10284.14</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25">
+        <v>155577</v>
+      </c>
+      <c r="D11" s="25">
+        <v>41847</v>
+      </c>
+      <c r="E11" s="25">
+        <v>40096</v>
+      </c>
+      <c r="F11" s="25">
+        <v>17707</v>
+      </c>
+      <c r="G11" s="25">
+        <v>14359</v>
+      </c>
+      <c r="H11" s="25">
+        <v>4980</v>
+      </c>
+      <c r="I11" s="25">
+        <v>25779</v>
+      </c>
+      <c r="J11" s="25">
+        <v>12717</v>
+      </c>
+      <c r="K11" s="25">
+        <v>-42</v>
+      </c>
+      <c r="L11" s="25">
+        <v>10</v>
+      </c>
+      <c r="M11" s="25">
+        <v>30.922000000000001</v>
+      </c>
+      <c r="N11" s="25">
+        <v>11.698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26">
+        <v>41360</v>
+      </c>
+      <c r="D12" s="26">
+        <v>92114</v>
+      </c>
+      <c r="E12" s="26">
+        <v>18022</v>
+      </c>
+      <c r="F12" s="26">
+        <v>60233</v>
+      </c>
+      <c r="G12" s="26">
+        <v>6417</v>
+      </c>
+      <c r="H12" s="26">
+        <v>16429</v>
+      </c>
+      <c r="I12" s="26">
+        <v>11520</v>
+      </c>
+      <c r="J12" s="26">
+        <v>43707</v>
+      </c>
+      <c r="K12" s="26">
+        <v>85</v>
+      </c>
+      <c r="L12" s="26">
+        <v>98</v>
+      </c>
+      <c r="M12" s="26">
+        <v>11.451000000000001</v>
+      </c>
+      <c r="N12" s="26">
+        <v>22.722000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="25">
+        <v>429.8</v>
+      </c>
+      <c r="D13" s="25">
+        <v>45.4</v>
+      </c>
+      <c r="E13" s="25">
+        <v>106.1</v>
+      </c>
+      <c r="F13" s="25">
+        <v>11</v>
+      </c>
+      <c r="G13" s="25">
+        <v>50.2</v>
+      </c>
+      <c r="H13" s="25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="25">
+        <v>56</v>
+      </c>
+      <c r="J13" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="26">
+        <v>7559</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1835</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1315</v>
+      </c>
+      <c r="G14" s="26">
+        <v>775</v>
+      </c>
+      <c r="H14" s="26">
+        <v>264</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1266</v>
+      </c>
+      <c r="J14" s="26">
+        <v>1056</v>
+      </c>
+      <c r="K14" s="26">
+        <v>-19</v>
+      </c>
+      <c r="L14" s="26">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="26">
+        <v>12.8</v>
+      </c>
+      <c r="N14" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="25">
+        <v>64869</v>
+      </c>
+      <c r="D15" s="25">
+        <v>26029</v>
+      </c>
+      <c r="E15" s="25">
+        <v>19595</v>
+      </c>
+      <c r="F15" s="25">
+        <v>12412</v>
+      </c>
+      <c r="G15" s="25">
+        <v>8882</v>
+      </c>
+      <c r="H15" s="25">
+        <v>4218</v>
+      </c>
+      <c r="I15" s="25">
+        <v>9941</v>
+      </c>
+      <c r="J15" s="25">
+        <v>7853</v>
+      </c>
+      <c r="K15" s="25">
+        <v>772</v>
+      </c>
+      <c r="L15" s="25">
+        <v>341</v>
+      </c>
+      <c r="M15" s="25">
+        <v>111</v>
+      </c>
+      <c r="N15" s="25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="26">
+        <v>137727</v>
+      </c>
+      <c r="D16" s="26">
+        <v>46535</v>
+      </c>
+      <c r="E16" s="26">
+        <v>45580</v>
+      </c>
+      <c r="F16" s="26">
+        <v>22858</v>
+      </c>
+      <c r="G16" s="26">
+        <v>24028</v>
+      </c>
+      <c r="H16" s="26">
+        <v>8909</v>
+      </c>
+      <c r="I16" s="26">
+        <v>21374</v>
+      </c>
+      <c r="J16" s="26">
+        <v>13883</v>
+      </c>
+      <c r="K16" s="26">
+        <v>178</v>
+      </c>
+      <c r="L16" s="26">
+        <v>66</v>
+      </c>
+      <c r="M16" s="26">
+        <v>348</v>
+      </c>
+      <c r="N16" s="26">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1561214</v>
+      </c>
+      <c r="D17" s="25">
+        <v>950652</v>
+      </c>
+      <c r="E17" s="25">
+        <v>392029</v>
+      </c>
+      <c r="F17" s="25">
+        <v>450794</v>
+      </c>
+      <c r="G17" s="25">
+        <v>89594</v>
+      </c>
+      <c r="H17" s="25">
+        <v>149504</v>
+      </c>
+      <c r="I17" s="25">
+        <v>294084</v>
+      </c>
+      <c r="J17" s="25">
+        <v>298569</v>
+      </c>
+      <c r="K17" s="25">
+        <v>8351</v>
+      </c>
+      <c r="L17" s="25">
+        <v>2721</v>
+      </c>
+      <c r="M17" s="25">
+        <v>16.291</v>
+      </c>
+      <c r="N17" s="25">
+        <v>20.789000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="26">
+        <v>50506.5</v>
+      </c>
+      <c r="D18" s="26">
+        <v>25044.1</v>
+      </c>
+      <c r="E18" s="26">
+        <v>10896.2</v>
+      </c>
+      <c r="F18" s="26">
+        <v>8888.5</v>
+      </c>
+      <c r="G18" s="26">
+        <v>5723.3</v>
+      </c>
+      <c r="H18" s="26">
+        <v>4034.3</v>
+      </c>
+      <c r="I18" s="26">
+        <v>4864.1000000000004</v>
+      </c>
+      <c r="J18" s="26">
+        <v>4486.5</v>
+      </c>
+      <c r="K18" s="26">
+        <v>308.8</v>
+      </c>
+      <c r="L18" s="26">
+        <v>367.7</v>
+      </c>
+      <c r="M18" s="26">
+        <v>109.7</v>
+      </c>
+      <c r="N18" s="26">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="25">
+        <v>22424500</v>
+      </c>
+      <c r="D19" s="25">
+        <v>9255400</v>
+      </c>
+      <c r="E19" s="25">
+        <v>8516400</v>
+      </c>
+      <c r="F19" s="25">
+        <v>3015900</v>
+      </c>
+      <c r="G19" s="25">
+        <v>2266700</v>
+      </c>
+      <c r="H19" s="25">
+        <v>802700</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="25">
+        <v>328</v>
+      </c>
+      <c r="N19" s="25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="26">
+        <v>144820316</v>
+      </c>
+      <c r="D20" s="26">
+        <v>17629352</v>
+      </c>
+      <c r="E20" s="26">
+        <v>38090317</v>
+      </c>
+      <c r="F20" s="26">
+        <v>6699394</v>
+      </c>
+      <c r="G20" s="26">
+        <v>9391789</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1980796</v>
+      </c>
+      <c r="I20" s="26">
+        <v>28334763</v>
+      </c>
+      <c r="J20" s="26">
+        <v>4673860</v>
+      </c>
+      <c r="K20" s="26">
+        <v>363765</v>
+      </c>
+      <c r="L20" s="26">
+        <v>44738</v>
+      </c>
+      <c r="M20" s="26">
+        <v>175.2</v>
+      </c>
+      <c r="N20" s="26">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="25">
+        <v>245.93</v>
+      </c>
+      <c r="D21" s="25">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="E21" s="25">
+        <v>61.082999999999998</v>
+      </c>
+      <c r="F21" s="25">
+        <v>78.703999999999994</v>
+      </c>
+      <c r="G21" s="25">
+        <v>33.743000000000002</v>
+      </c>
+      <c r="H21" s="25">
+        <v>41.521000000000001</v>
+      </c>
+      <c r="I21" s="25">
+        <v>26.463999999999999</v>
+      </c>
+      <c r="J21" s="25">
+        <v>36.499000000000002</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0.876</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="M21" s="25">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="N21" s="25">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="26">
+        <v>2026.5</v>
+      </c>
+      <c r="D22" s="26">
+        <v>215.7</v>
+      </c>
+      <c r="E22" s="26">
+        <v>532.5</v>
+      </c>
+      <c r="F22" s="26">
+        <v>169.2</v>
+      </c>
+      <c r="G22" s="26">
+        <v>126.7</v>
+      </c>
+      <c r="H22" s="26">
+        <v>17.5</v>
+      </c>
+      <c r="I22" s="26">
+        <v>407.4</v>
+      </c>
+      <c r="J22" s="26">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="K22" s="26">
+        <v>-1.5</v>
+      </c>
+      <c r="L22" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="26">
+        <v>6.6</v>
+      </c>
+      <c r="N22" s="26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="25">
+        <v>720647.26100000006</v>
+      </c>
+      <c r="D23" s="25">
+        <v>275739.48700000002</v>
+      </c>
+      <c r="E23" s="25">
+        <v>210925.78400000001</v>
+      </c>
+      <c r="F23" s="25">
+        <v>65884.478000000003</v>
+      </c>
+      <c r="G23" s="25">
+        <v>38561.97</v>
+      </c>
+      <c r="H23" s="25">
+        <v>25493.957999999999</v>
+      </c>
+      <c r="I23" s="25">
+        <v>170135.56</v>
+      </c>
+      <c r="J23" s="25">
+        <v>39511.928999999996</v>
+      </c>
+      <c r="K23" s="25">
+        <v>2228.2539999999999</v>
+      </c>
+      <c r="L23" s="25">
+        <v>878.59100000000001</v>
+      </c>
+      <c r="M23" s="25">
+        <v>155.35499999999999</v>
+      </c>
+      <c r="N23" s="25">
+        <v>118.422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="26">
+        <v>41782</v>
+      </c>
+      <c r="D24" s="26">
+        <v>5784</v>
+      </c>
+      <c r="E24" s="26">
+        <v>9497</v>
+      </c>
+      <c r="F24" s="26">
+        <v>2423</v>
+      </c>
+      <c r="G24" s="26">
+        <v>3475</v>
+      </c>
+      <c r="H24" s="26">
+        <v>902</v>
+      </c>
+      <c r="I24" s="26">
+        <v>6007</v>
+      </c>
+      <c r="J24" s="26">
+        <v>1552</v>
+      </c>
+      <c r="K24" s="26">
+        <v>15</v>
+      </c>
+      <c r="L24" s="26">
+        <v>-31</v>
+      </c>
+      <c r="M24" s="26">
+        <v>43</v>
+      </c>
+      <c r="N24" s="26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="25">
+        <v>56741</v>
+      </c>
+      <c r="D25" s="25">
+        <v>12448</v>
+      </c>
+      <c r="E25" s="25">
+        <v>15300</v>
+      </c>
+      <c r="F25" s="25">
+        <v>6492</v>
+      </c>
+      <c r="G25" s="25">
+        <v>7609</v>
+      </c>
+      <c r="H25" s="25">
+        <v>2019</v>
+      </c>
+      <c r="I25" s="25">
+        <v>7709</v>
+      </c>
+      <c r="J25" s="25">
+        <v>4473</v>
+      </c>
+      <c r="K25" s="25">
+        <v>-18</v>
+      </c>
+      <c r="L25" s="25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N25" s="25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="26">
+        <v>4356.4840000000004</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1175.9290000000001</v>
+      </c>
+      <c r="E26" s="26">
+        <v>878.67700000000002</v>
+      </c>
+      <c r="F26" s="26">
+        <v>505.16399999999999</v>
+      </c>
+      <c r="G26" s="26">
+        <v>356.76100000000002</v>
+      </c>
+      <c r="H26" s="26">
+        <v>204.215</v>
+      </c>
+      <c r="I26" s="26">
+        <v>503.59199999999998</v>
+      </c>
+      <c r="J26" s="26">
+        <v>225.114</v>
+      </c>
+      <c r="K26" s="26">
+        <v>18.324000000000002</v>
+      </c>
+      <c r="L26" s="26">
+        <v>75.834999999999994</v>
+      </c>
+      <c r="M26" s="26">
+        <v>12.057</v>
+      </c>
+      <c r="N26" s="26">
+        <v>6.2270000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="25">
+        <v>1907.855</v>
+      </c>
+      <c r="D27" s="25">
+        <v>209.029</v>
+      </c>
+      <c r="E27" s="25">
+        <v>646.14</v>
+      </c>
+      <c r="F27" s="25">
+        <v>55.09</v>
+      </c>
+      <c r="G27" s="25">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="H27" s="25">
+        <v>45.83</v>
+      </c>
+      <c r="I27" s="25">
+        <v>492.09699999999998</v>
+      </c>
+      <c r="J27" s="25">
+        <v>9.3350000000000009</v>
+      </c>
+      <c r="K27" s="25">
+        <v>-2.2650000000000001</v>
+      </c>
+      <c r="L27" s="25">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="M27" s="25">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="N27" s="25">
+        <v>2.2280000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="26">
+        <v>36741</v>
+      </c>
+      <c r="D28" s="26">
+        <v>15161</v>
+      </c>
+      <c r="E28" s="26">
+        <v>8061</v>
+      </c>
+      <c r="F28" s="26">
+        <v>6833</v>
+      </c>
+      <c r="G28" s="26">
+        <v>3954</v>
+      </c>
+      <c r="H28" s="26">
+        <v>2115</v>
+      </c>
+      <c r="I28" s="26">
+        <v>4057</v>
+      </c>
+      <c r="J28" s="26">
+        <v>4711</v>
+      </c>
+      <c r="K28" s="26">
+        <v>50</v>
+      </c>
+      <c r="L28" s="26">
         <v>7</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="N4" s="39"/>
-    </row>
-    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="44">
-        <v>17390</v>
-      </c>
-      <c r="D7" s="44">
-        <v>10427</v>
-      </c>
-      <c r="E7" s="44">
-        <v>6061</v>
-      </c>
-      <c r="F7" s="44">
-        <v>3451</v>
-      </c>
-      <c r="G7" s="44">
-        <v>2949</v>
-      </c>
-      <c r="H7" s="44">
-        <v>1466</v>
-      </c>
-      <c r="I7" s="44">
-        <v>2957</v>
-      </c>
-      <c r="J7" s="44">
-        <v>1941</v>
-      </c>
-      <c r="K7" s="44">
-        <v>151</v>
-      </c>
-      <c r="L7" s="44">
-        <v>48</v>
-      </c>
-      <c r="M7" s="44">
-        <v>31.715</v>
-      </c>
-      <c r="N7" s="44">
-        <v>16.427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="45">
-        <v>13142.207</v>
-      </c>
-      <c r="D8" s="45">
-        <v>4268.8580000000002</v>
-      </c>
-      <c r="E8" s="45">
-        <v>2750.683</v>
-      </c>
-      <c r="F8" s="45">
-        <v>2190.2440000000001</v>
-      </c>
-      <c r="G8" s="45">
-        <v>1169.6790000000001</v>
-      </c>
-      <c r="H8" s="45">
-        <v>999.32500000000005</v>
-      </c>
-      <c r="I8" s="45">
-        <v>1540.5920000000001</v>
-      </c>
-      <c r="J8" s="45">
-        <v>1143.9290000000001</v>
-      </c>
-      <c r="K8" s="45">
-        <v>40.411999999999999</v>
-      </c>
-      <c r="L8" s="45">
-        <v>46.99</v>
-      </c>
-      <c r="M8" s="45">
-        <v>17.47</v>
-      </c>
-      <c r="N8" s="45">
-        <v>15.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="44">
-        <v>32184.7</v>
-      </c>
-      <c r="D9" s="44">
-        <v>15967.8</v>
-      </c>
-      <c r="E9" s="44">
-        <v>9208.1</v>
-      </c>
-      <c r="F9" s="44">
-        <v>5799.6</v>
-      </c>
-      <c r="G9" s="44">
-        <v>4169.7</v>
-      </c>
-      <c r="H9" s="44">
-        <v>2219.6999999999998</v>
-      </c>
-      <c r="I9" s="44">
-        <v>5127.8</v>
-      </c>
-      <c r="J9" s="44">
-        <v>3664</v>
-      </c>
-      <c r="K9" s="44">
-        <v>-89.4</v>
-      </c>
-      <c r="L9" s="44">
-        <v>-84.1</v>
-      </c>
-      <c r="M9" s="44">
-        <v>44</v>
-      </c>
-      <c r="N9" s="44">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="M28" s="26">
+        <v>83.8</v>
+      </c>
+      <c r="N28" s="26">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="25">
+        <v>23031.416700000002</v>
+      </c>
+      <c r="D29" s="25">
+        <v>80032.204400000002</v>
+      </c>
+      <c r="E29" s="25">
+        <v>7470.1342000000004</v>
+      </c>
+      <c r="F29" s="25">
+        <v>28686.775900000001</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="45">
-        <v>4296151.79</v>
-      </c>
-      <c r="D10" s="45">
-        <v>1176806.6969999999</v>
-      </c>
-      <c r="E10" s="45">
-        <v>1262313.6129999999</v>
-      </c>
-      <c r="F10" s="45">
-        <v>414529.82299999997</v>
-      </c>
-      <c r="G10" s="45">
-        <v>410617.86</v>
-      </c>
-      <c r="H10" s="45">
-        <v>197186.617</v>
-      </c>
-      <c r="I10" s="45">
-        <v>825702.42099999997</v>
-      </c>
-      <c r="J10" s="45">
-        <v>207059.06099999999</v>
-      </c>
-      <c r="K10" s="45">
-        <v>25993.348999999998</v>
-      </c>
-      <c r="L10" s="45">
-        <v>10284.14</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="44">
-        <v>155577</v>
-      </c>
-      <c r="D11" s="44">
-        <v>41847</v>
-      </c>
-      <c r="E11" s="44">
-        <v>40096</v>
-      </c>
-      <c r="F11" s="44">
-        <v>17707</v>
-      </c>
-      <c r="G11" s="44">
-        <v>14359</v>
-      </c>
-      <c r="H11" s="44">
-        <v>4980</v>
-      </c>
-      <c r="I11" s="44">
-        <v>25779</v>
-      </c>
-      <c r="J11" s="44">
-        <v>12717</v>
-      </c>
-      <c r="K11" s="44">
-        <v>-42</v>
-      </c>
-      <c r="L11" s="44">
-        <v>10</v>
-      </c>
-      <c r="M11" s="44">
-        <v>30.922000000000001</v>
-      </c>
-      <c r="N11" s="44">
-        <v>11.698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="45">
-        <v>41360</v>
-      </c>
-      <c r="D12" s="45">
-        <v>92114</v>
-      </c>
-      <c r="E12" s="45">
-        <v>18022</v>
-      </c>
-      <c r="F12" s="45">
-        <v>60233</v>
-      </c>
-      <c r="G12" s="45">
-        <v>6417</v>
-      </c>
-      <c r="H12" s="45">
-        <v>16429</v>
-      </c>
-      <c r="I12" s="45">
-        <v>11520</v>
-      </c>
-      <c r="J12" s="45">
-        <v>43707</v>
-      </c>
-      <c r="K12" s="45">
-        <v>85</v>
-      </c>
-      <c r="L12" s="45">
-        <v>98</v>
-      </c>
-      <c r="M12" s="45">
-        <v>11.451000000000001</v>
-      </c>
-      <c r="N12" s="45">
-        <v>22.722000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="44">
-        <v>429.8</v>
-      </c>
-      <c r="D13" s="44">
-        <v>45.4</v>
-      </c>
-      <c r="E13" s="44">
-        <v>106.1</v>
-      </c>
-      <c r="F13" s="44">
-        <v>11</v>
-      </c>
-      <c r="G13" s="44">
-        <v>50.2</v>
-      </c>
-      <c r="H13" s="44">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I13" s="44">
-        <v>56</v>
-      </c>
-      <c r="J13" s="44">
-        <v>1.8</v>
-      </c>
-      <c r="K13" s="44">
-        <v>-0.1</v>
-      </c>
-      <c r="L13" s="44">
-        <v>0</v>
-      </c>
-      <c r="M13" s="44">
-        <v>3.1</v>
-      </c>
-      <c r="N13" s="44">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="45">
-        <v>7559</v>
-      </c>
-      <c r="D14" s="45">
-        <v>1835</v>
-      </c>
-      <c r="E14" s="45">
-        <v>2022</v>
-      </c>
-      <c r="F14" s="45">
-        <v>1315</v>
-      </c>
-      <c r="G14" s="45">
-        <v>775</v>
-      </c>
-      <c r="H14" s="45">
-        <v>264</v>
-      </c>
-      <c r="I14" s="45">
-        <v>1266</v>
-      </c>
-      <c r="J14" s="45">
-        <v>1056</v>
-      </c>
-      <c r="K14" s="45">
-        <v>-19</v>
-      </c>
-      <c r="L14" s="45">
-        <v>-5</v>
-      </c>
-      <c r="M14" s="45">
-        <v>12.8</v>
-      </c>
-      <c r="N14" s="45">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="44">
-        <v>64869</v>
-      </c>
-      <c r="D15" s="44">
-        <v>26029</v>
-      </c>
-      <c r="E15" s="44">
-        <v>19595</v>
-      </c>
-      <c r="F15" s="44">
-        <v>12412</v>
-      </c>
-      <c r="G15" s="44">
-        <v>8882</v>
-      </c>
-      <c r="H15" s="44">
-        <v>4218</v>
-      </c>
-      <c r="I15" s="44">
-        <v>9941</v>
-      </c>
-      <c r="J15" s="44">
-        <v>7853</v>
-      </c>
-      <c r="K15" s="44">
-        <v>772</v>
-      </c>
-      <c r="L15" s="44">
-        <v>341</v>
-      </c>
-      <c r="M15" s="44">
-        <v>111</v>
-      </c>
-      <c r="N15" s="44">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="45">
-        <v>137727</v>
-      </c>
-      <c r="D16" s="45">
-        <v>46535</v>
-      </c>
-      <c r="E16" s="45">
-        <v>45580</v>
-      </c>
-      <c r="F16" s="45">
-        <v>22858</v>
-      </c>
-      <c r="G16" s="45">
-        <v>24028</v>
-      </c>
-      <c r="H16" s="45">
-        <v>8909</v>
-      </c>
-      <c r="I16" s="45">
-        <v>21374</v>
-      </c>
-      <c r="J16" s="45">
-        <v>13883</v>
-      </c>
-      <c r="K16" s="45">
-        <v>178</v>
-      </c>
-      <c r="L16" s="45">
-        <v>66</v>
-      </c>
-      <c r="M16" s="45">
-        <v>348</v>
-      </c>
-      <c r="N16" s="45">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="44">
-        <v>1561214</v>
-      </c>
-      <c r="D17" s="44">
-        <v>950652</v>
-      </c>
-      <c r="E17" s="44">
-        <v>392029</v>
-      </c>
-      <c r="F17" s="44">
-        <v>450794</v>
-      </c>
-      <c r="G17" s="44">
-        <v>89594</v>
-      </c>
-      <c r="H17" s="44">
-        <v>149504</v>
-      </c>
-      <c r="I17" s="44">
-        <v>294084</v>
-      </c>
-      <c r="J17" s="44">
-        <v>298569</v>
-      </c>
-      <c r="K17" s="44">
-        <v>8351</v>
-      </c>
-      <c r="L17" s="44">
-        <v>2721</v>
-      </c>
-      <c r="M17" s="44">
-        <v>16.291</v>
-      </c>
-      <c r="N17" s="44">
-        <v>20.789000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="45">
-        <v>50506.5</v>
-      </c>
-      <c r="D18" s="45">
-        <v>25044.1</v>
-      </c>
-      <c r="E18" s="45">
-        <v>10896.2</v>
-      </c>
-      <c r="F18" s="45">
-        <v>8888.5</v>
-      </c>
-      <c r="G18" s="45">
-        <v>5723.3</v>
-      </c>
-      <c r="H18" s="45">
-        <v>4034.3</v>
-      </c>
-      <c r="I18" s="45">
-        <v>4864.1000000000004</v>
-      </c>
-      <c r="J18" s="45">
-        <v>4486.5</v>
-      </c>
-      <c r="K18" s="45">
-        <v>308.8</v>
-      </c>
-      <c r="L18" s="45">
-        <v>367.7</v>
-      </c>
-      <c r="M18" s="45">
-        <v>109.7</v>
-      </c>
-      <c r="N18" s="45">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="44">
-        <v>22424500</v>
-      </c>
-      <c r="D19" s="44">
-        <v>9255400</v>
-      </c>
-      <c r="E19" s="44">
-        <v>8516400</v>
-      </c>
-      <c r="F19" s="44">
-        <v>3015900</v>
-      </c>
-      <c r="G19" s="44">
-        <v>2266700</v>
-      </c>
-      <c r="H19" s="44">
-        <v>802700</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="L19" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="44">
-        <v>328</v>
-      </c>
-      <c r="N19" s="44">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="45">
-        <v>144820316</v>
-      </c>
-      <c r="D20" s="45">
-        <v>17629352</v>
-      </c>
-      <c r="E20" s="45">
-        <v>38090317</v>
-      </c>
-      <c r="F20" s="45">
-        <v>6699394</v>
-      </c>
-      <c r="G20" s="45">
-        <v>9391789</v>
-      </c>
-      <c r="H20" s="45">
-        <v>1980796</v>
-      </c>
-      <c r="I20" s="45">
-        <v>28334763</v>
-      </c>
-      <c r="J20" s="45">
-        <v>4673860</v>
-      </c>
-      <c r="K20" s="45">
-        <v>363765</v>
-      </c>
-      <c r="L20" s="45">
-        <v>44738</v>
-      </c>
-      <c r="M20" s="45">
-        <v>175.2</v>
-      </c>
-      <c r="N20" s="45">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="44">
-        <v>245.93</v>
-      </c>
-      <c r="D21" s="44">
-        <v>156.44999999999999</v>
-      </c>
-      <c r="E21" s="44">
-        <v>61.082999999999998</v>
-      </c>
-      <c r="F21" s="44">
-        <v>78.703999999999994</v>
-      </c>
-      <c r="G21" s="44">
-        <v>33.743000000000002</v>
-      </c>
-      <c r="H21" s="44">
-        <v>41.521000000000001</v>
-      </c>
-      <c r="I21" s="44">
-        <v>26.463999999999999</v>
-      </c>
-      <c r="J21" s="44">
-        <v>36.499000000000002</v>
-      </c>
-      <c r="K21" s="44">
-        <v>0.876</v>
-      </c>
-      <c r="L21" s="44">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="M21" s="44">
-        <v>2.8730000000000002</v>
-      </c>
-      <c r="N21" s="44">
-        <v>2.351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="45">
-        <v>2026.5</v>
-      </c>
-      <c r="D22" s="45">
-        <v>215.7</v>
-      </c>
-      <c r="E22" s="45">
-        <v>532.5</v>
-      </c>
-      <c r="F22" s="45">
-        <v>169.2</v>
-      </c>
-      <c r="G22" s="45">
-        <v>126.7</v>
-      </c>
-      <c r="H22" s="45">
-        <v>17.5</v>
-      </c>
-      <c r="I22" s="45">
-        <v>407.4</v>
-      </c>
-      <c r="J22" s="45">
-        <v>151.69999999999999</v>
-      </c>
-      <c r="K22" s="45">
-        <v>-1.5</v>
-      </c>
-      <c r="L22" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="M22" s="45">
-        <v>6.6</v>
-      </c>
-      <c r="N22" s="45">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="44">
-        <v>720647.26100000006</v>
-      </c>
-      <c r="D23" s="44">
-        <v>275739.48700000002</v>
-      </c>
-      <c r="E23" s="44">
-        <v>210925.78400000001</v>
-      </c>
-      <c r="F23" s="44">
-        <v>65884.478000000003</v>
-      </c>
-      <c r="G23" s="44">
-        <v>38561.97</v>
-      </c>
-      <c r="H23" s="44">
-        <v>25493.957999999999</v>
-      </c>
-      <c r="I23" s="44">
-        <v>170135.56</v>
-      </c>
-      <c r="J23" s="44">
-        <v>39511.928999999996</v>
-      </c>
-      <c r="K23" s="44">
-        <v>2228.2539999999999</v>
-      </c>
-      <c r="L23" s="44">
-        <v>878.59100000000001</v>
-      </c>
-      <c r="M23" s="44">
-        <v>155.35499999999999</v>
-      </c>
-      <c r="N23" s="44">
-        <v>118.422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="45">
-        <v>41782</v>
-      </c>
-      <c r="D24" s="45">
-        <v>5784</v>
-      </c>
-      <c r="E24" s="45">
-        <v>9497</v>
-      </c>
-      <c r="F24" s="45">
-        <v>2423</v>
-      </c>
-      <c r="G24" s="45">
-        <v>3475</v>
-      </c>
-      <c r="H24" s="45">
-        <v>902</v>
-      </c>
-      <c r="I24" s="45">
-        <v>6007</v>
-      </c>
-      <c r="J24" s="45">
-        <v>1552</v>
-      </c>
-      <c r="K24" s="45">
-        <v>15</v>
-      </c>
-      <c r="L24" s="45">
-        <v>-31</v>
-      </c>
-      <c r="M24" s="45">
-        <v>43</v>
-      </c>
-      <c r="N24" s="45">
+      <c r="H29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="25">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="N29" s="25">
+        <v>46.713000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="26">
+        <v>32794</v>
+      </c>
+      <c r="D30" s="26">
+        <v>21282</v>
+      </c>
+      <c r="E30" s="26">
+        <v>12217</v>
+      </c>
+      <c r="F30" s="26">
+        <v>11848</v>
+      </c>
+      <c r="G30" s="26">
+        <v>6748</v>
+      </c>
+      <c r="H30" s="26">
+        <v>4114</v>
+      </c>
+      <c r="I30" s="26">
+        <v>5410</v>
+      </c>
+      <c r="J30" s="26">
+        <v>7721</v>
+      </c>
+      <c r="K30" s="26">
+        <v>59</v>
+      </c>
+      <c r="L30" s="26">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="44">
-        <v>56741</v>
-      </c>
-      <c r="D25" s="44">
-        <v>12448</v>
-      </c>
-      <c r="E25" s="44">
-        <v>15300</v>
-      </c>
-      <c r="F25" s="44">
-        <v>6492</v>
-      </c>
-      <c r="G25" s="44">
-        <v>7609</v>
-      </c>
-      <c r="H25" s="44">
-        <v>2019</v>
-      </c>
-      <c r="I25" s="44">
-        <v>7709</v>
-      </c>
-      <c r="J25" s="44">
-        <v>4473</v>
-      </c>
-      <c r="K25" s="44">
-        <v>-18</v>
-      </c>
-      <c r="L25" s="44">
-        <v>0</v>
-      </c>
-      <c r="M25" s="44">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="N25" s="44">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="45">
-        <v>4356.4840000000004</v>
-      </c>
-      <c r="D26" s="45">
-        <v>1175.9290000000001</v>
-      </c>
-      <c r="E26" s="45">
-        <v>878.67700000000002</v>
-      </c>
-      <c r="F26" s="45">
-        <v>505.16399999999999</v>
-      </c>
-      <c r="G26" s="45">
-        <v>356.76100000000002</v>
-      </c>
-      <c r="H26" s="45">
-        <v>204.215</v>
-      </c>
-      <c r="I26" s="45">
-        <v>503.59199999999998</v>
-      </c>
-      <c r="J26" s="45">
-        <v>225.114</v>
-      </c>
-      <c r="K26" s="45">
-        <v>18.324000000000002</v>
-      </c>
-      <c r="L26" s="45">
-        <v>75.834999999999994</v>
-      </c>
-      <c r="M26" s="45">
-        <v>12.057</v>
-      </c>
-      <c r="N26" s="45">
-        <v>6.2270000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="44">
-        <v>1907.855</v>
-      </c>
-      <c r="D27" s="44">
-        <v>209.029</v>
-      </c>
-      <c r="E27" s="44">
-        <v>646.14</v>
-      </c>
-      <c r="F27" s="44">
-        <v>55.09</v>
-      </c>
-      <c r="G27" s="44">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="H27" s="44">
-        <v>45.83</v>
-      </c>
-      <c r="I27" s="44">
-        <v>492.09699999999998</v>
-      </c>
-      <c r="J27" s="44">
-        <v>9.3350000000000009</v>
-      </c>
-      <c r="K27" s="44">
-        <v>-2.2650000000000001</v>
-      </c>
-      <c r="L27" s="44">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="M27" s="44">
-        <v>8.5920000000000005</v>
-      </c>
-      <c r="N27" s="44">
-        <v>2.2280000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="45">
-        <v>36741</v>
-      </c>
-      <c r="D28" s="45">
-        <v>15161</v>
-      </c>
-      <c r="E28" s="45">
-        <v>8061</v>
-      </c>
-      <c r="F28" s="45">
-        <v>6833</v>
-      </c>
-      <c r="G28" s="45">
-        <v>3954</v>
-      </c>
-      <c r="H28" s="45">
-        <v>2115</v>
-      </c>
-      <c r="I28" s="45">
-        <v>4057</v>
-      </c>
-      <c r="J28" s="45">
-        <v>4711</v>
-      </c>
-      <c r="K28" s="45">
-        <v>50</v>
-      </c>
-      <c r="L28" s="45">
-        <v>7</v>
-      </c>
-      <c r="M28" s="45">
-        <v>83.8</v>
-      </c>
-      <c r="N28" s="45">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="44">
-        <v>23031.416700000002</v>
-      </c>
-      <c r="D29" s="44">
-        <v>80032.204400000002</v>
-      </c>
-      <c r="E29" s="44">
-        <v>7470.1342000000004</v>
-      </c>
-      <c r="F29" s="44">
-        <v>28686.775900000001</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="L29" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" s="44">
-        <v>29.100999999999999</v>
-      </c>
-      <c r="N29" s="44">
-        <v>46.713000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="M30" s="26">
+        <v>96.19</v>
+      </c>
+      <c r="N30" s="26">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="45">
-        <v>32794</v>
-      </c>
-      <c r="D30" s="45">
-        <v>21282</v>
-      </c>
-      <c r="E30" s="45">
-        <v>12217</v>
-      </c>
-      <c r="F30" s="45">
-        <v>11848</v>
-      </c>
-      <c r="G30" s="45">
-        <v>6748</v>
-      </c>
-      <c r="H30" s="45">
-        <v>4114</v>
-      </c>
-      <c r="I30" s="45">
-        <v>5410</v>
-      </c>
-      <c r="J30" s="45">
-        <v>7721</v>
-      </c>
-      <c r="K30" s="45">
-        <v>59</v>
-      </c>
-      <c r="L30" s="45">
-        <v>13</v>
-      </c>
-      <c r="M30" s="45">
-        <v>96.19</v>
-      </c>
-      <c r="N30" s="45">
-        <v>40.64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="B31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="25">
+        <v>515221</v>
+      </c>
+      <c r="D31" s="25">
+        <v>266206</v>
+      </c>
+      <c r="E31" s="25">
+        <v>184192</v>
+      </c>
+      <c r="F31" s="25">
+        <v>143569</v>
+      </c>
+      <c r="G31" s="25">
+        <v>54606</v>
+      </c>
+      <c r="H31" s="25">
+        <v>45877</v>
+      </c>
+      <c r="I31" s="25">
+        <v>120465</v>
+      </c>
+      <c r="J31" s="25">
+        <v>94460</v>
+      </c>
+      <c r="K31" s="25">
+        <v>9121</v>
+      </c>
+      <c r="L31" s="25">
+        <v>3232</v>
+      </c>
+      <c r="M31" s="25">
+        <v>534</v>
+      </c>
+      <c r="N31" s="25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="44">
-        <v>515221</v>
-      </c>
-      <c r="D31" s="44">
-        <v>266206</v>
-      </c>
-      <c r="E31" s="44">
-        <v>184192</v>
-      </c>
-      <c r="F31" s="44">
-        <v>143569</v>
-      </c>
-      <c r="G31" s="44">
-        <v>54606</v>
-      </c>
-      <c r="H31" s="44">
-        <v>45877</v>
-      </c>
-      <c r="I31" s="44">
-        <v>120465</v>
-      </c>
-      <c r="J31" s="44">
-        <v>94460</v>
-      </c>
-      <c r="K31" s="44">
-        <v>9121</v>
-      </c>
-      <c r="L31" s="44">
-        <v>3232</v>
-      </c>
-      <c r="M31" s="44">
-        <v>534</v>
-      </c>
-      <c r="N31" s="44">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="B34" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="48" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="B35" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4132,8 +4339,217 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822C4A83-0F68-43EF-AE32-60D53A9D80C3}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>64800</v>
+      </c>
+      <c r="C6">
+        <v>185400</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="56">
+        <v>40135000000</v>
+      </c>
+      <c r="C11" s="56">
+        <v>268953000000</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57">
+        <v>268953000000</v>
+      </c>
+      <c r="D12" s="57">
+        <v>106189000000</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="58">
+        <f>$D13*($B$11/$D$12)</f>
+        <v>18895640697.24736</v>
+      </c>
+      <c r="C13" s="57">
+        <v>158231000000</v>
+      </c>
+      <c r="D13" s="57">
+        <v>49994000000</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="58">
+        <f t="shared" ref="B14:B16" si="0">$D14*($B$11/$D$12)</f>
+        <v>6824034739.9448147</v>
+      </c>
+      <c r="C14" s="57">
+        <v>38814000000</v>
+      </c>
+      <c r="D14" s="57">
+        <v>18055000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="58">
+        <f t="shared" si="0"/>
+        <v>1877696183.220484</v>
+      </c>
+      <c r="C15" s="57">
+        <v>32690000000</v>
+      </c>
+      <c r="D15" s="57">
+        <v>4968000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="58">
+        <f t="shared" si="0"/>
+        <v>10193909774.08206</v>
+      </c>
+      <c r="C16" s="57">
+        <v>86727000000</v>
+      </c>
+      <c r="D16" s="57">
+        <v>26971000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{EB460731-DDF6-406C-A38F-90129C5CD2AA}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{A0A0C00B-4A7E-419C-ACC4-CEE510BB6CB9}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{C0AFF339-B6E6-4586-BF0D-0D110BD8B819}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2874A2D-92E4-4247-99A1-8960158A8480}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4145,23 +4561,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
         <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <f>'OECD Chem Pharma Split'!G$31/SUM('OECD Chem Pharma Split'!$G$31:$H$31)</f>
@@ -4174,7 +4590,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4">
         <f>'OECD Chem Pharma Split'!K$31/SUM('OECD Chem Pharma Split'!$K$31:$L$31)</f>
@@ -4187,7 +4603,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5">
         <f>'OECD Chem Pharma Split'!I$31/SUM('OECD Chem Pharma Split'!$I$31:$J$31)</f>
@@ -4196,6 +4612,61 @@
       <c r="C5">
         <f>'OECD Chem Pharma Split'!J$31/SUM('OECD Chem Pharma Split'!$I$31:$J$31)</f>
         <v>0.43950215191345821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="60">
+        <f>'BLS BEA Mining'!B14/SUM('BLS BEA Mining'!$B14:$C14)</f>
+        <v>0.14952516642816915</v>
+      </c>
+      <c r="C10" s="60">
+        <f>'BLS BEA Mining'!C14/SUM('BLS BEA Mining'!$B14:$C14)</f>
+        <v>0.85047483357183085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="60">
+        <f>'BLS BEA Mining'!B15/SUM('BLS BEA Mining'!$B15:$C15)</f>
+        <v>5.431939037152083E-2</v>
+      </c>
+      <c r="C11" s="60">
+        <f>'BLS BEA Mining'!C15/SUM('BLS BEA Mining'!$B15:$C15)</f>
+        <v>0.94568060962847922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="60">
+        <f>'BLS BEA Mining'!B16/SUM('BLS BEA Mining'!$B16:$C16)</f>
+        <v>0.10517761128990193</v>
+      </c>
+      <c r="C12" s="60">
+        <f>'BLS BEA Mining'!C16/SUM('BLS BEA Mining'!$B16:$C16)</f>
+        <v>0.894822388710098</v>
       </c>
     </row>
   </sheetData>
@@ -4203,286 +4674,293 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="38" width="10.140625" customWidth="1"/>
+    <col min="2" max="39" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="16">
         <f>'OECD VAL'!C10/SUM('OECD VAL'!C9:C11)</f>
         <v>6.1517190580761986E-2</v>
       </c>
-      <c r="C2" s="16">
-        <f>'OECD VAL'!D10/SUM('OECD VAL'!D9:D11)</f>
-        <v>9.9067379257927329E-2</v>
-      </c>
-      <c r="D2" s="16">
+      <c r="C2" s="32">
+        <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!B$11)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!B$10:B$12)</f>
+        <v>4.9495022154874085E-2</v>
+      </c>
+      <c r="D2" s="32">
+        <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!C$11)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!C$10:C$12)</f>
+        <v>0.10511453602057504</v>
+      </c>
+      <c r="E2" s="16">
         <f>'OECD VAL'!E10/SUM('OECD VAL'!E9:E11)</f>
         <v>5.6127436576759913E-2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="F2" s="16">
         <f>'OECD VAL'!F10/SUM('OECD VAL'!F9:F11)</f>
         <v>4.0151804740454169E-2</v>
       </c>
-      <c r="F2" s="16">
+      <c r="G2" s="16">
         <f>'OECD VAL'!G10/SUM('OECD VAL'!G9:G11)</f>
         <v>3.2299002645631493E-2</v>
       </c>
-      <c r="G2" s="16">
+      <c r="H2" s="16">
         <f>'OECD VAL'!H10/SUM('OECD VAL'!H9:H11)</f>
         <v>3.1820922313056638E-2</v>
       </c>
-      <c r="H2" s="16">
+      <c r="I2" s="16">
         <f>'OECD VAL'!I10/SUM('OECD VAL'!I9:I11)</f>
         <v>2.3560197910940078E-2</v>
       </c>
-      <c r="I2" s="16">
+      <c r="J2" s="16">
         <f>'OECD VAL'!J10/SUM('OECD VAL'!J9:J11)</f>
         <v>2.5976535134693248E-2</v>
       </c>
-      <c r="J2" s="16">
+      <c r="K2" s="16">
         <f>'OECD VAL'!K10/SUM('OECD VAL'!K9:K11)</f>
         <v>2.1425789482983619E-2</v>
       </c>
-      <c r="K2" s="51">
-        <f>('OECD VAL'!$L$10*'Chem Pharma Shares'!B$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Chem Pharma Shares'!B$3:B$5)</f>
+      <c r="L2" s="32">
+        <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!B$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!B$3:B$5)</f>
         <v>4.5767591720580925E-2</v>
       </c>
-      <c r="L2" s="51">
-        <f>('OECD VAL'!$L$10*'Chem Pharma Shares'!C$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Chem Pharma Shares'!C$3:C$5)</f>
+      <c r="M2" s="32">
+        <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!C$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!C$3:C$5)</f>
         <v>2.0818116352961109E-2</v>
       </c>
-      <c r="M2" s="16">
+      <c r="N2" s="16">
         <f>'OECD VAL'!M10/SUM('OECD VAL'!M9:M11)</f>
         <v>2.1680370671842714E-2</v>
       </c>
-      <c r="N2" s="16">
+      <c r="O2" s="16">
         <f>'OECD VAL'!N10/SUM('OECD VAL'!N9:N11)</f>
         <v>2.8480429060816687E-2</v>
       </c>
-      <c r="O2" s="16">
+      <c r="P2" s="16">
         <f>'OECD VAL'!O10/SUM('OECD VAL'!O9:O11)</f>
         <v>4.3506251471436608E-2</v>
       </c>
-      <c r="P2" s="16">
+      <c r="Q2" s="16">
         <f>'OECD VAL'!P10/SUM('OECD VAL'!P9:P11)</f>
         <v>1.9307124350611618E-2</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="R2" s="16">
         <f>'OECD VAL'!Q10/SUM('OECD VAL'!Q9:Q11)</f>
         <v>2.5746481393069176E-2</v>
       </c>
-      <c r="R2" s="16">
+      <c r="S2" s="16">
         <f>'OECD VAL'!R10/SUM('OECD VAL'!R9:R11)</f>
         <v>2.0144197988579221E-2</v>
       </c>
-      <c r="S2" s="16">
+      <c r="T2" s="16">
         <f>'OECD VAL'!S10/SUM('OECD VAL'!S9:S11)</f>
         <v>2.2632144555397051E-2</v>
       </c>
-      <c r="T2" s="16">
+      <c r="U2" s="16">
         <f>'OECD VAL'!T10/SUM('OECD VAL'!T9:T11)</f>
         <v>1.8663737124842539E-2</v>
       </c>
-      <c r="U2" s="16">
+      <c r="V2" s="16">
         <f>'OECD VAL'!U10/SUM('OECD VAL'!U9:U11)</f>
         <v>1.7985856004675407E-2</v>
       </c>
-      <c r="V2" s="16">
+      <c r="W2" s="16">
         <f>'OECD VAL'!V10/SUM('OECD VAL'!V9:V11)</f>
         <v>1.9698422822110023E-2</v>
       </c>
-      <c r="W2" s="16">
+      <c r="X2" s="16">
         <f>'OECD VAL'!W10/SUM('OECD VAL'!W9:W11)</f>
         <v>0.13319579866756548</v>
       </c>
-      <c r="X2" s="16">
+      <c r="Y2" s="16">
         <f>'OECD VAL'!X10/SUM('OECD VAL'!X9:X11)</f>
         <v>1.1137517809357384E-2</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Z2" s="16">
         <f>'OECD VAL'!Y10/SUM('OECD VAL'!Y9:Y11)</f>
         <v>2.9785512861146255E-2</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="AA2" s="16">
         <f>'OECD VAL'!Z10/SUM('OECD VAL'!Z9:Z11)</f>
         <v>2.5606736815010557E-2</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="AB2" s="16">
         <f>'OECD VAL'!AA10/SUM('OECD VAL'!AA9:AA11)</f>
         <v>4.8980458276615936E-2</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AC2" s="16">
         <f>'OECD VAL'!AB10/SUM('OECD VAL'!AB9:AB11)</f>
         <v>1.95745299924363E-2</v>
       </c>
-      <c r="AC2" s="16">
+      <c r="AD2" s="16">
         <f>'OECD VAL'!AC10/SUM('OECD VAL'!AC9:AC11)</f>
         <v>3.1512391871811096E-2</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AE2" s="16">
         <f>'OECD VAL'!AD10/SUM('OECD VAL'!AD9:AD11)</f>
         <v>9.3582739635012166E-3</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="AF2" s="16">
         <f>'OECD VAL'!AE10/SUM('OECD VAL'!AE9:AE11)</f>
         <v>3.1491443051795943E-2</v>
       </c>
-      <c r="AF2" s="16">
+      <c r="AG2" s="16">
         <f>'OECD VAL'!AF10/SUM('OECD VAL'!AF9:AF11)</f>
         <v>0.10974217146820722</v>
       </c>
-      <c r="AG2" s="16">
+      <c r="AH2" s="16">
         <f>'OECD VAL'!AG10/SUM('OECD VAL'!AG9:AG11)</f>
         <v>1.5065355463333142E-2</v>
       </c>
-      <c r="AH2" s="16">
+      <c r="AI2" s="16">
         <f>'OECD VAL'!AH10/SUM('OECD VAL'!AH9:AH11)</f>
         <v>7.6786727995343008E-3</v>
       </c>
-      <c r="AI2" s="16">
+      <c r="AJ2" s="16">
         <f>'OECD VAL'!AI10/SUM('OECD VAL'!AI9:AI11)</f>
         <v>3.6848123302380888E-2</v>
       </c>
-      <c r="AJ2" s="16">
+      <c r="AK2" s="16">
         <f>'OECD VAL'!AJ10/SUM('OECD VAL'!AJ9:AJ11)</f>
         <v>1.9753493918955489E-2</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AL2" s="16">
         <f>'OECD VAL'!AK10/SUM('OECD VAL'!AK9:AK11)</f>
         <v>2.973755864173263E-2</v>
       </c>
-      <c r="AL2" s="16">
+      <c r="AM2" s="16">
         <f>'OECD VAL'!AL10/SUM('OECD VAL'!AL9:AL11)</f>
         <v>0</v>
       </c>
